--- a/Doc/JedEye PuppetMaster plan.xlsx
+++ b/Doc/JedEye PuppetMaster plan.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>Find the needed commands to control the servo's up and down</t>
@@ -517,7 +514,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,35 +527,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
@@ -566,13 +563,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
@@ -580,127 +577,135 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1"/>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1"/>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1"/>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1"/>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="G17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1"/>
       <c r="G18" s="4"/>

--- a/Doc/JedEye PuppetMaster plan.xlsx
+++ b/Doc/JedEye PuppetMaster plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>done</t>
   </si>
@@ -94,18 +94,6 @@
     <t>create movement segments</t>
   </si>
   <si>
-    <t>dance around with the puppet to make it more appealing to viewers</t>
-  </si>
-  <si>
-    <t>find proper music for the puppet's performance</t>
-  </si>
-  <si>
-    <t>sing along with the music to attract female conference attendants</t>
-  </si>
-  <si>
-    <t>dress up as puppets for a more immersing viewing experience</t>
-  </si>
-  <si>
     <t>make basic reading of pressure values into data structure</t>
   </si>
   <si>
@@ -113,6 +101,9 @@
   </si>
   <si>
     <t>prepare and test plan for disassembly and reassembly of hardware</t>
+  </si>
+  <si>
+    <t>make the servo pull string faster</t>
   </si>
 </sst>
 </file>
@@ -514,7 +505,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +540,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -563,7 +554,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -597,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -609,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -619,7 +610,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -629,7 +620,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -639,7 +630,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -649,7 +640,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -659,7 +650,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -669,7 +660,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -678,9 +669,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="G15" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,9 +677,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -698,9 +685,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/Doc/JedEye PuppetMaster plan.xlsx
+++ b/Doc/JedEye PuppetMaster plan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="27795" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UIST TO DO" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>done</t>
   </si>
@@ -91,9 +92,6 @@
     <t>build frame rail for puppet movement</t>
   </si>
   <si>
-    <t>create movement segments</t>
-  </si>
-  <si>
     <t>make basic reading of pressure values into data structure</t>
   </si>
   <si>
@@ -103,7 +101,70 @@
     <t>prepare and test plan for disassembly and reassembly of hardware</t>
   </si>
   <si>
-    <t>make the servo pull string faster</t>
+    <t>Testing, Recording and playing sequences</t>
+  </si>
+  <si>
+    <t>Testing, Disassembly and assembly</t>
+  </si>
+  <si>
+    <t>Test and improve right/left movements</t>
+  </si>
+  <si>
+    <t>Hardware setup testing</t>
+  </si>
+  <si>
+    <t>Work on continuous servo movements</t>
+  </si>
+  <si>
+    <t>Work on continuous servo string pulling</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Test and improve stationary 5 servos puppet movements</t>
+  </si>
+  <si>
+    <t>Write recording/playing code</t>
+  </si>
+  <si>
+    <t>UIST final preperations</t>
+  </si>
+  <si>
+    <t>Write right/left movement recognition code</t>
+  </si>
+  <si>
+    <t>minimize noise from the 5-8 servos all working together..</t>
+  </si>
+  <si>
+    <t>get pullies for servos</t>
+  </si>
+  <si>
+    <t>To consider during construction: servo screws must be accessible</t>
+  </si>
+  <si>
+    <t>possible to take apart and put back together</t>
+  </si>
+  <si>
+    <t>connect hook for a string to hold the puppet</t>
   </si>
 </sst>
 </file>
@@ -137,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,11 +253,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +387,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +756,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -554,7 +770,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -588,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -650,7 +866,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -659,9 +875,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,6 +909,363 @@
       <c r="B18" s="1"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7">
+        <v>41165</v>
+      </c>
+      <c r="E2" s="7">
+        <v>41166</v>
+      </c>
+      <c r="F2" s="7">
+        <v>41167</v>
+      </c>
+      <c r="G2" s="15">
+        <v>41168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>41169</v>
+      </c>
+      <c r="B7" s="7">
+        <v>41170</v>
+      </c>
+      <c r="C7" s="7">
+        <v>41171</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41172</v>
+      </c>
+      <c r="E7" s="7">
+        <v>41173</v>
+      </c>
+      <c r="F7" s="7">
+        <v>41174</v>
+      </c>
+      <c r="G7" s="15">
+        <v>41175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>41176</v>
+      </c>
+      <c r="B13" s="7">
+        <v>41177</v>
+      </c>
+      <c r="C13" s="7">
+        <v>41178</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41179</v>
+      </c>
+      <c r="E13" s="7">
+        <v>41180</v>
+      </c>
+      <c r="F13" s="7">
+        <v>41181</v>
+      </c>
+      <c r="G13" s="15">
+        <v>41182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>41183</v>
+      </c>
+      <c r="B19" s="7">
+        <v>41184</v>
+      </c>
+      <c r="C19" s="7">
+        <v>41185</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41186</v>
+      </c>
+      <c r="E19" s="7">
+        <v>41187</v>
+      </c>
+      <c r="F19" s="7">
+        <v>41188</v>
+      </c>
+      <c r="G19" s="15">
+        <v>41189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
